--- a/Modelling/final presentation/pass2/BayesNet Result.xlsx
+++ b/Modelling/final presentation/pass2/BayesNet Result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Zahid dataset" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>=== Confusion Matrix ===</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t xml:space="preserve">   1  76 173 |   c = tap</t>
+  </si>
+  <si>
+    <t>SMO on all dataset</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Motion</t>
+  </si>
+  <si>
+    <t>Tap</t>
   </si>
 </sst>
 </file>
@@ -249,12 +261,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -269,8 +335,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,35 +671,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:A10"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -615,18 +714,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B29"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -634,7 +733,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -642,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -650,99 +749,126 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="2">
+        <v>243</v>
+      </c>
+      <c r="K29" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="10">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -752,18 +878,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B34"/>
+  <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -771,7 +897,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -779,7 +905,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -787,130 +913,185 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M44" s="2">
+        <v>486</v>
+      </c>
+      <c r="N44" s="6">
+        <v>7</v>
+      </c>
+      <c r="O44" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="8">
+        <v>57</v>
+      </c>
+      <c r="N45" s="4">
+        <v>117</v>
+      </c>
+      <c r="O45" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" s="10">
+        <v>2</v>
+      </c>
+      <c r="N46" s="5">
+        <v>46</v>
+      </c>
+      <c r="O46" s="3">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B36"/>
+  <dimension ref="A2:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J33" sqref="J33:M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -918,7 +1099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -926,7 +1107,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -934,109 +1115,155 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="2">
+        <v>975</v>
+      </c>
+      <c r="L34" s="6">
+        <v>24</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="8">
+        <v>57</v>
+      </c>
+      <c r="L35" s="4">
+        <v>399</v>
+      </c>
+      <c r="M35" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>54</v>
+      </c>
+      <c r="M36" s="3">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1046,18 +1273,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B36"/>
+  <dimension ref="A2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1292,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1300,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1081,109 +1308,155 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L34" s="2">
+        <v>970</v>
+      </c>
+      <c r="M34" s="6">
+        <v>29</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L35" s="8">
+        <v>142</v>
+      </c>
+      <c r="M35" s="4">
+        <v>825</v>
+      </c>
+      <c r="N35" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1</v>
+      </c>
+      <c r="M36" s="5">
+        <v>76</v>
+      </c>
+      <c r="N36" s="3">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
